--- a/src/test/resources/QA_Assignment.xlsx
+++ b/src/test/resources/QA_Assignment.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psureshbabu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psureshbabu\workspace\RestAPI\restapi-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F59D5F9C-5131-4E58-A0EF-90E05F9CA36F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82908843-370A-457B-997F-3343A24322E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9396" xr2:uid="{393408E4-39D4-4B9F-A164-17B6211F4922}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9396" activeTab="1" xr2:uid="{393408E4-39D4-4B9F-A164-17B6211F4922}"/>
   </bookViews>
   <sheets>
-    <sheet name="UseCase" sheetId="2" r:id="rId1"/>
+    <sheet name="TestPlan" sheetId="2" r:id="rId1"/>
     <sheet name="TestCase" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>validate if the method type is incorrectly provided (eg: put instead of post), then 405 Method Not Allowed should be returned</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Approach</t>
   </si>
   <si>
-    <t>Use CaseDescription</t>
-  </si>
-  <si>
     <t>Test Driven Development</t>
   </si>
   <si>
@@ -150,6 +147,53 @@
   </si>
   <si>
     <t>To test on the different user scenarios that will be thrown when a service is called while creating and retrieving customer</t>
+  </si>
+  <si>
+    <t>No response code should be provided</t>
+  </si>
+  <si>
+    <t>400 Bad Request should be the status code</t>
+  </si>
+  <si>
+    <t>validate that the service does throw "error connecting to &lt;your_stage_name&gt; message when a call tat was supposedly to be made with https was hit using ftp</t>
+  </si>
+  <si>
+    <t>validate that the service does throw 400 response code when a call tat was supposedly to be made with https was hit using http</t>
+  </si>
+  <si>
+    <t>Technology Stack</t>
+  </si>
+  <si>
+    <t>Framework</t>
+  </si>
+  <si>
+    <t>Rest Assured Framework using Apache Http Client</t>
+  </si>
+  <si>
+    <t>TestNG, Java, JSON, Maven</t>
+  </si>
+  <si>
+    <t>Change the header content type to application/xml instead of application/json, and call the create customer hit by passing in the right json payload and API</t>
+  </si>
+  <si>
+    <t>1. status should be returned as 415 unsupported media type
+2. response body should be 
+{
+    "name": "UNSUPPORTED_MEDIA_TYPE",
+    "message": "The request payload is not supported",
+    "debug_id": "&lt;any alphanumeric charac&gt;",
+    "details": [],
+    "links": []
+}</t>
+  </si>
+  <si>
+    <t>Use Case Description</t>
+  </si>
+  <si>
+    <t>testUnsupportedMediaType()</t>
+  </si>
+  <si>
+    <t>testBadRequest()</t>
   </si>
 </sst>
 </file>
@@ -218,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -251,6 +295,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -593,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F47DD0D-A3E3-4505-A261-C8BA9208F64E}">
-  <dimension ref="B6:C8"/>
+  <dimension ref="B6:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -607,10 +652,10 @@
   <sheetData>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="13" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
@@ -618,15 +663,31 @@
         <v>32</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>36</v>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -637,10 +698,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55FEB5BB-E3C2-4B48-BC09-84ED3E35BAAB}">
-  <dimension ref="A3:F13"/>
+  <dimension ref="A3:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -826,6 +887,52 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>10</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>11</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="132" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/src/test/resources/QA_Assignment.xlsx
+++ b/src/test/resources/QA_Assignment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psureshbabu\workspace\RestAPI\restapi-automation\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82908843-370A-457B-997F-3343A24322E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{2C63AE10-FFEB-4E8C-9485-F11F5D292F9E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24576" windowHeight="9396" activeTab="1" xr2:uid="{393408E4-39D4-4B9F-A164-17B6211F4922}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>validate if the method type is incorrectly provided (eg: put instead of post), then 405 Method Not Allowed should be returned</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>testBadRequest()</t>
+  </si>
+  <si>
+    <t>testNoResponse()</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
   <dimension ref="A3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -897,7 +900,9 @@
       <c r="C14" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
